--- a/SinglesList.xlsx
+++ b/SinglesList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="128">
   <si>
     <t xml:space="preserve">Song Year</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">NAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Robert Leroy Johnson</t>
+    <t xml:space="preserve">Robert Johnson</t>
   </si>
   <si>
     <t xml:space="preserve">Rambling Pony</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Fleetwood Mac</t>
   </si>
   <si>
-    <t xml:space="preserve">Peter Alan Green</t>
+    <t xml:space="preserve">Peter Green</t>
   </si>
   <si>
     <t xml:space="preserve">Shake Your Money Maker</t>
@@ -73,22 +73,19 @@
     <t xml:space="preserve">Need Your Love So Bad</t>
   </si>
   <si>
-    <t xml:space="preserve">John Jr. Mertis</t>
+    <t xml:space="preserve">John Mertis</t>
   </si>
   <si>
     <t xml:space="preserve">Stop Messin' Round</t>
   </si>
   <si>
-    <t xml:space="preserve">Clifford G. Adams</t>
+    <t xml:space="preserve">Clifford Adams</t>
   </si>
   <si>
     <t xml:space="preserve">Peter A. Green</t>
   </si>
   <si>
     <t xml:space="preserve">Man Of The World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter Green</t>
   </si>
   <si>
     <t xml:space="preserve">Somebody's Gonna Get Their Head Kicked In Tonite</t>
@@ -506,8 +503,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B75" activeCellId="0" sqref="B75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -694,7 +691,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>7</v>
@@ -705,16 +702,16 @@
         <v>1969</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>7</v>
@@ -725,7 +722,7 @@
         <v>1969</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>7</v>
@@ -734,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>7</v>
@@ -745,19 +742,19 @@
         <v>1969</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1969</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,7 +762,7 @@
         <v>1970</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>7</v>
@@ -774,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>7</v>
@@ -785,19 +782,19 @@
         <v>1971</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,19 +802,19 @@
         <v>1971</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,16 +822,16 @@
         <v>1971</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1970</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>7</v>
@@ -845,13 +842,13 @@
         <v>1971</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1970</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>13</v>
@@ -865,16 +862,16 @@
         <v>1971</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1971</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>7</v>
@@ -885,16 +882,16 @@
         <v>1972</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1972</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>7</v>
@@ -905,16 +902,16 @@
         <v>1972</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1972</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>7</v>
@@ -925,19 +922,19 @@
         <v>1972</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1973</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,16 +942,16 @@
         <v>1973</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1973</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>7</v>
@@ -965,16 +962,16 @@
         <v>1973</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1973</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>7</v>
@@ -985,16 +982,16 @@
         <v>1974</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1974</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>7</v>
@@ -1005,7 +1002,7 @@
         <v>1975</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1975</v>
@@ -1014,7 +1011,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>7</v>
@@ -1025,7 +1022,7 @@
         <v>1975</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1975</v>
@@ -1034,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>7</v>
@@ -1045,7 +1042,7 @@
         <v>1976</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1975</v>
@@ -1054,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>7</v>
@@ -1065,7 +1062,7 @@
         <v>1976</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1975</v>
@@ -1074,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>7</v>
@@ -1085,16 +1082,16 @@
         <v>1976</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1977</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>7</v>
@@ -1105,16 +1102,16 @@
         <v>1977</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1977</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>7</v>
@@ -1125,16 +1122,16 @@
         <v>1977</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1977</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>7</v>
@@ -1145,16 +1142,16 @@
         <v>1977</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1977</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>7</v>
@@ -1165,16 +1162,16 @@
         <v>1977</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1977</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>7</v>
@@ -1185,16 +1182,16 @@
         <v>1979</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>7</v>
@@ -1205,16 +1202,16 @@
         <v>1979</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>7</v>
@@ -1225,16 +1222,16 @@
         <v>1980</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>7</v>
@@ -1245,16 +1242,16 @@
         <v>1980</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>7</v>
@@ -1265,16 +1262,16 @@
         <v>1980</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>7</v>
@@ -1285,16 +1282,16 @@
         <v>1980</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>7</v>
@@ -1305,16 +1302,16 @@
         <v>1981</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1980</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>7</v>
@@ -1325,19 +1322,19 @@
         <v>1981</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1980</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,19 +1342,19 @@
         <v>1982</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1982</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,16 +1362,16 @@
         <v>1982</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1982</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>7</v>
@@ -1385,19 +1382,19 @@
         <v>1982</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1982</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,19 +1402,19 @@
         <v>1982</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1982</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,16 +1422,16 @@
         <v>1983</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1982</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>7</v>
@@ -1445,19 +1442,19 @@
         <v>1987</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,19 +1462,19 @@
         <v>1987</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,19 +1482,19 @@
         <v>1987</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,16 +1502,16 @@
         <v>1987</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>7</v>
@@ -1525,19 +1522,19 @@
         <v>1987</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,19 +1542,19 @@
         <v>1988</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,19 +1562,19 @@
         <v>1988</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>1988</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,19 +1582,19 @@
         <v>1990</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,19 +1602,19 @@
         <v>1990</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,19 +1622,19 @@
         <v>1990</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E56" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,19 +1642,19 @@
         <v>1990</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,19 +1662,19 @@
         <v>1990</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,19 +1682,19 @@
         <v>1992</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,19 +1702,19 @@
         <v>1992</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="F60" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,19 +1722,19 @@
         <v>1995</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,19 +1742,19 @@
         <v>1997</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,19 +1762,19 @@
         <v>1997</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,16 +1782,16 @@
         <v>1997</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>7</v>
@@ -1805,16 +1802,16 @@
         <v>1998</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>7</v>
@@ -1825,16 +1822,16 @@
         <v>2003</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>7</v>
@@ -1845,16 +1842,16 @@
         <v>2003</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>7</v>
@@ -1865,16 +1862,16 @@
         <v>2013</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>7</v>
